--- a/Versi revisi 2024 Perjuangan/av_sales_gabung_converted.xlsx
+++ b/Versi revisi 2024 Perjuangan/av_sales_gabung_converted.xlsx
@@ -14,130 +14,130 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="307">
   <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">waktu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tanggal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_mds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id_mds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_mds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">region_mds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kode_customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no_hp_customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kecamatan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kabupaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">provinsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detail_klasifikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klasifikasi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sekolah</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nama_cluster_firestart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koordinat_ro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">koordinat_call</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lat1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lat2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jarak_meter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kesesuaian_titik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peserta_display_wow_operator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peserta_loyalty_sachet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sahabat_nfi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firestart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">item_penjualan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub_brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">harga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty_sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tipe_transaksi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">av_item</t>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waktu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanggal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama Mds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id Mds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area Mds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Region Mds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kode Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Hp Customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kecamatan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabupaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provinsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detail Klasifikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klasifikasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sekolah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nama Cluster Firestart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordinat Ro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordinat Call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lat2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarak Meter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kesesuaian Titik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peserta Display Wow Operator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peserta Loyalty Sachet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sahabat Nfi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firestart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item Penjualan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qty Sold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipe Transaksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av Item</t>
   </si>
   <si>
     <t xml:space="preserve">130cac82</t>
